--- a/Timer i 7. 8. 9..xlsx
+++ b/Timer i 7. 8. 9..xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Dan</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Uger på år</t>
+  </si>
+  <si>
+    <t>Sam</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L17"/>
+  <dimension ref="C3:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,15 +485,15 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>D6/J$3</f>
+        <f t="shared" ref="J6:J17" si="0">D6/J$3</f>
         <v>5.25</v>
       </c>
       <c r="K6">
-        <f>E6/J$3</f>
+        <f t="shared" ref="K6:K17" si="1">E6/J$3</f>
         <v>5.25</v>
       </c>
       <c r="L6">
-        <f>F6/J$3</f>
+        <f t="shared" ref="L6:L17" si="2">F6/J$3</f>
         <v>5.25</v>
       </c>
     </row>
@@ -511,15 +514,15 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <f>D7/J$3</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K7">
-        <f>E7/J$3</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L7">
-        <f>F7/J$3</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
@@ -540,15 +543,15 @@
         <v>2</v>
       </c>
       <c r="J8">
-        <f>D8/J$3</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="K8">
-        <f>E8/J$3</f>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="L8">
-        <f>F8/J$3</f>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
     </row>
@@ -569,15 +572,15 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <f>D9/J$3</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="K9">
-        <f>E9/J$3</f>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="L9">
-        <f>F9/J$3</f>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
@@ -598,15 +601,15 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <f>D10/J$3</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K10">
-        <f>E10/J$3</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L10">
-        <f>F10/J$3</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -627,15 +630,15 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <f>D11/J$3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>E11/J$3</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L11">
-        <f>F11/J$3</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -656,15 +659,15 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <f>D12/J$3</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K12">
-        <f>E12/J$3</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L12">
-        <f>F12/J$3</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -685,15 +688,15 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <f>D13/J$3</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K13">
-        <f>E13/J$3</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="L13">
-        <f>F13/J$3</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -714,15 +717,15 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <f>D14/J$3</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K14">
-        <f>E14/J$3</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L14">
-        <f>F14/J$3</f>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
@@ -743,21 +746,21 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <f>D15/J$3</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="K15">
-        <f>E15/J$3</f>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="L15">
-        <f>F15/J$3</f>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -769,47 +772,76 @@
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <f>D16/J$3</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K16">
-        <f>E16/J$3</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="L16">
-        <f>F16/J$3</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J18" si="3">D17/J$3</f>
+        <v>1.5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K18" si="4">E17/J$3</f>
+        <v>1.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L18" si="5">F17/J$3</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D17">
-        <v>60</v>
-      </c>
-      <c r="E17">
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>11</v>
       </c>
-      <c r="J17">
-        <f>D17/J$3</f>
-        <v>1.5</v>
-      </c>
-      <c r="K17">
-        <f>E17/J$3</f>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17">
-        <f>F17/J$3</f>
+      <c r="L18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
